--- a/random_wc_model_generator/data/fixtures/metabolism.xlsx
+++ b/random_wc_model_generator/data/fixtures/metabolism.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathy\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/random_wc_model_generator/random_wc_model_generator/data/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19520" windowHeight="21140" tabRatio="500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="-25880" yWindow="460" windowWidth="24320" windowHeight="18960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrations!$A$1:$D$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Cross references'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Cross references'!$A$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rate laws'!$A$1:$G$117</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1067">
   <si>
     <t>Id</t>
   </si>
@@ -3242,11 +3243,41 @@
   <si>
     <t>URA[e] + H[e] ==&gt; URA[c] + H[c]</t>
   </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>Taxon for synthetic microorganism</t>
+  </si>
+  <si>
+    <t>ChEBI</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/chebi/searchId.do?chebiId=CHEBI:16708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hastings, J., de Matos, P., Dekker, A., Ennis, M., Harsha, B., Kale, N., Muthukrishnan, V., Owen, G., Turner, S., Williams, M., and Steinbeck, C. </t>
+  </si>
+  <si>
+    <t>Ref_0020</t>
+  </si>
+  <si>
+    <t>The ChEBI reference database and ontology for biologically relevant chemistry: enhancements for 2013</t>
+  </si>
+  <si>
+    <t>Hastings et al., 2013</t>
+  </si>
+  <si>
+    <t>Nucleic Acids Research</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -3359,7 +3390,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3369,6 +3400,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -3424,18 +3457,20 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3734,19 +3769,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3790,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3762,7 +3798,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3770,7 +3806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3778,34 +3814,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>693</v>
       </c>
@@ -3842,26 +3879,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="32.6796875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>466</v>
       </c>
@@ -3913,7 +3951,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>471</v>
       </c>
@@ -3933,7 +3971,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>474</v>
       </c>
@@ -3955,7 +3993,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>478</v>
       </c>
@@ -3981,7 +4019,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>481</v>
       </c>
@@ -4002,22 +4040,26 @@
       <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:H6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4073,7 +4115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -4113,7 +4155,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -4149,7 +4191,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>508</v>
       </c>
@@ -4189,7 +4231,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>515</v>
       </c>
@@ -4229,7 +4271,7 @@
       </c>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>523</v>
       </c>
@@ -4267,7 +4309,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>477</v>
       </c>
@@ -4301,7 +4343,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>460</v>
       </c>
@@ -4337,7 +4379,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>540</v>
       </c>
@@ -4377,7 +4419,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>547</v>
       </c>
@@ -4417,7 +4459,7 @@
       </c>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>554</v>
       </c>
@@ -4457,7 +4499,7 @@
       </c>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>562</v>
       </c>
@@ -4497,7 +4539,7 @@
       </c>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>568</v>
       </c>
@@ -4537,7 +4579,7 @@
       </c>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -4577,7 +4619,7 @@
       </c>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
@@ -4617,7 +4659,7 @@
       </c>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>587</v>
       </c>
@@ -4643,7 +4685,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>590</v>
       </c>
@@ -4669,7 +4711,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>592</v>
       </c>
@@ -4695,7 +4737,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>594</v>
       </c>
@@ -4721,7 +4763,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -4747,23 +4789,58 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G21">
+        <v>2013</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L21">
+        <v>41</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1066</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R20" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:R20"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22:I105"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>597</v>
       </c>
@@ -4783,19 +4860,16 @@
         <v>256</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>601</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>601</v>
+        <v>453</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>603</v>
       </c>
@@ -4808,12 +4882,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>603</v>
       </c>
@@ -4826,12 +4899,11 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>603</v>
       </c>
@@ -4844,12 +4916,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>603</v>
       </c>
@@ -4862,12 +4933,11 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>603</v>
       </c>
@@ -4880,12 +4950,11 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>616</v>
       </c>
@@ -4898,12 +4967,11 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>603</v>
       </c>
@@ -4916,12 +4984,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>603</v>
       </c>
@@ -4934,12 +5001,11 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>603</v>
       </c>
@@ -4952,12 +5018,11 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>603</v>
       </c>
@@ -4970,12 +5035,11 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>603</v>
       </c>
@@ -4988,12 +5052,11 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>617</v>
       </c>
@@ -5006,12 +5069,11 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>603</v>
       </c>
@@ -5024,12 +5086,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>603</v>
       </c>
@@ -5042,12 +5103,11 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>599</v>
       </c>
@@ -5062,12 +5122,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>599</v>
       </c>
@@ -5082,12 +5141,11 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>599</v>
       </c>
@@ -5102,12 +5160,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>599</v>
       </c>
@@ -5122,12 +5179,11 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>599</v>
       </c>
@@ -5142,28 +5198,723 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>594</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B21">
+        <v>16708</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D51" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D54" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D55" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D56" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D57" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D58" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D60" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D61" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D62" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D64" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D65" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D66" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D67" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D68" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D69" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D70" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D71" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D72" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D73" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D74" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D75" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D76" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D77" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D78" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G78" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D79" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G80" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D82" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D83" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D84" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D85" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D86" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D87" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D88" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D89" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D90" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D91" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D92" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D93" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D94" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D95" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D96" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G96" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D97" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D98" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G98" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D99" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G99" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D100" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D101" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D102" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D103" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G103" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D104" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D105" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G105" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0000-00000C000000}"/>
+  <autoFilter ref="A1:I20"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5171,58 +5922,65 @@
         <v>945</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B2" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B3" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B4" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:B6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5251,7 +6009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -5274,7 +6032,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -5295,7 +6053,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5316,7 +6074,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5337,7 +6095,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>697</v>
       </c>
@@ -5354,7 +6112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>698</v>
       </c>
@@ -5372,25 +6130,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:I5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
       <selection activeCell="D3" sqref="D2:D3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +6169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5430,7 +6189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -5451,25 +6210,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:F3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.81640625" style="13"/>
+    <col min="3" max="4" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5501,7 +6266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -5533,7 +6298,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5563,7 +6328,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -5593,7 +6358,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -5625,7 +6390,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -5655,7 +6420,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -5685,7 +6450,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5717,7 +6482,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -5747,7 +6512,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -5779,7 +6544,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -5809,7 +6574,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -5841,7 +6606,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -5871,7 +6636,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -5901,7 +6666,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -5931,7 +6696,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -5963,7 +6728,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -5993,7 +6758,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -6023,7 +6788,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -6055,7 +6820,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -6087,7 +6852,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -6117,7 +6882,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -6147,7 +6912,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -6177,7 +6942,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -6207,7 +6972,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -6237,7 +7002,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -6267,7 +7032,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -6297,7 +7062,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -6327,7 +7092,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -6359,7 +7124,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -6389,7 +7154,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -6419,7 +7184,7 @@
       </c>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
@@ -6449,7 +7214,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -6481,7 +7246,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -6511,7 +7276,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
@@ -6543,7 +7308,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
@@ -6573,7 +7338,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -6605,7 +7370,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>100</v>
       </c>
@@ -6635,7 +7400,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -6667,7 +7432,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
@@ -6699,7 +7464,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
@@ -6729,7 +7494,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
@@ -6761,7 +7526,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -6791,7 +7556,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>110</v>
       </c>
@@ -6821,7 +7586,7 @@
       </c>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -6851,7 +7616,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -6881,7 +7646,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>116</v>
       </c>
@@ -6913,7 +7678,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -6943,7 +7708,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -6975,7 +7740,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -7005,7 +7770,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -7037,7 +7802,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -7069,7 +7834,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -7099,7 +7864,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -7131,7 +7896,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -7161,7 +7926,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
@@ -7191,7 +7956,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>136</v>
       </c>
@@ -7223,7 +7988,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
@@ -7255,7 +8020,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>700</v>
       </c>
@@ -7287,7 +8052,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
@@ -7317,7 +8082,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>701</v>
       </c>
@@ -7347,7 +8112,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -7377,7 +8142,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -7407,7 +8172,7 @@
       </c>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>146</v>
       </c>
@@ -7437,7 +8202,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -7467,7 +8232,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>150</v>
       </c>
@@ -7497,7 +8262,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>152</v>
       </c>
@@ -7527,7 +8292,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>154</v>
       </c>
@@ -7557,7 +8322,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -7587,7 +8352,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>158</v>
       </c>
@@ -7619,7 +8384,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>160</v>
       </c>
@@ -7649,7 +8414,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>162</v>
       </c>
@@ -7679,7 +8444,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>164</v>
       </c>
@@ -7709,7 +8474,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>166</v>
       </c>
@@ -7739,7 +8504,7 @@
       </c>
       <c r="J74" s="19"/>
     </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>168</v>
       </c>
@@ -7769,7 +8534,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>170</v>
       </c>
@@ -7801,7 +8566,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>172</v>
       </c>
@@ -7831,7 +8596,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
@@ -7863,7 +8628,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>176</v>
       </c>
@@ -7893,7 +8658,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>177</v>
       </c>
@@ -7923,7 +8688,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>178</v>
       </c>
@@ -7955,7 +8720,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
@@ -7985,7 +8750,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>182</v>
       </c>
@@ -8017,7 +8782,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>183</v>
       </c>
@@ -8047,7 +8812,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>185</v>
       </c>
@@ -8079,7 +8844,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>187</v>
       </c>
@@ -8109,504 +8874,25 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="B96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.75">
-      <c r="B146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J86" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:J86"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:A1048576"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" ht="45.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
@@ -8620,7 +8906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -8631,18 +8917,16 @@
         <v>859</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -8651,9 +8935,8 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -8664,9 +8947,8 @@
         <v>859</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>194</v>
       </c>
@@ -8675,9 +8957,8 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -8686,9 +8967,8 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -8699,9 +8979,8 @@
         <v>859</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -8710,9 +8989,8 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>198</v>
       </c>
@@ -8723,9 +9001,8 @@
         <v>49</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
@@ -8734,9 +9011,8 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>200</v>
       </c>
@@ -8747,9 +9023,8 @@
         <v>859</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
@@ -8758,18 +9033,16 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
@@ -8778,9 +9051,8 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>203</v>
       </c>
@@ -8791,9 +9063,8 @@
         <v>860</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>204</v>
       </c>
@@ -8802,9 +9073,8 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>205</v>
       </c>
@@ -8813,9 +9083,8 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>206</v>
       </c>
@@ -8826,9 +9095,8 @@
         <v>859</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>207</v>
       </c>
@@ -8839,72 +9107,64 @@
         <v>49</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>208</v>
       </c>
@@ -8913,9 +9173,8 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -8926,9 +9185,8 @@
         <v>861</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
@@ -8937,9 +9195,8 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>211</v>
       </c>
@@ -8950,9 +9207,8 @@
         <v>859</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
@@ -8961,9 +9217,8 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>213</v>
       </c>
@@ -8974,9 +9229,8 @@
         <v>859</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>214</v>
       </c>
@@ -8985,9 +9239,8 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>215</v>
       </c>
@@ -8998,9 +9251,8 @@
         <v>859</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>216</v>
       </c>
@@ -9009,9 +9261,8 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>217</v>
       </c>
@@ -9022,9 +9273,8 @@
         <v>862</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>218</v>
       </c>
@@ -9033,9 +9283,8 @@
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>221</v>
       </c>
@@ -9046,9 +9295,8 @@
         <v>102</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>222</v>
       </c>
@@ -9059,9 +9307,8 @@
         <v>102</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>219</v>
       </c>
@@ -9072,9 +9319,8 @@
         <v>861</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>220</v>
       </c>
@@ -9085,9 +9331,8 @@
         <v>861</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>223</v>
       </c>
@@ -9095,9 +9340,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>224</v>
       </c>
@@ -9108,9 +9352,8 @@
         <v>859</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>225</v>
       </c>
@@ -9118,9 +9361,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>226</v>
       </c>
@@ -9131,18 +9373,16 @@
         <v>859</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>227</v>
       </c>
@@ -9150,9 +9390,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>228</v>
       </c>
@@ -9163,9 +9402,8 @@
         <v>859</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>229</v>
       </c>
@@ -9173,9 +9411,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>230</v>
       </c>
@@ -9186,9 +9423,8 @@
         <v>859</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>231</v>
       </c>
@@ -9196,9 +9432,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>232</v>
       </c>
@@ -9209,9 +9444,8 @@
         <v>859</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>233</v>
       </c>
@@ -9222,17 +9456,15 @@
         <v>859</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B55" s="15"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
@@ -9243,18 +9475,16 @@
         <v>863</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>235</v>
       </c>
@@ -9262,9 +9492,8 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>236</v>
       </c>
@@ -9275,9 +9504,8 @@
         <v>859</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
@@ -9288,9 +9516,8 @@
         <v>49</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>238</v>
       </c>
@@ -9301,9 +9528,8 @@
         <v>49</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>865</v>
       </c>
@@ -9314,9 +9540,8 @@
         <v>49</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>239</v>
       </c>
@@ -9325,18 +9550,16 @@
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>240</v>
       </c>
@@ -9345,9 +9568,8 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>241</v>
       </c>
@@ -9358,54 +9580,48 @@
         <v>859</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>242</v>
       </c>
@@ -9414,9 +9630,8 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>243</v>
       </c>
@@ -9427,27 +9642,24 @@
         <v>859</v>
       </c>
       <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>244</v>
       </c>
@@ -9456,9 +9668,8 @@
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
@@ -9469,9 +9680,8 @@
         <v>859</v>
       </c>
       <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
@@ -9480,9 +9690,8 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>247</v>
       </c>
@@ -9493,9 +9702,8 @@
         <v>859</v>
       </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>248</v>
       </c>
@@ -9504,9 +9712,8 @@
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -9517,18 +9724,16 @@
         <v>859</v>
       </c>
       <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B82" s="15"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>250</v>
       </c>
@@ -9537,9 +9742,8 @@
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -9550,18 +9754,16 @@
         <v>864</v>
       </c>
       <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>252</v>
       </c>
@@ -9572,9 +9774,8 @@
         <v>859</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-    </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>253</v>
       </c>
@@ -9584,7 +9785,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>254</v>
       </c>
@@ -9596,7 +9797,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>255</v>
       </c>
@@ -9606,7 +9807,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>187</v>
       </c>
@@ -9616,34 +9817,31 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="C91" s="10"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="C92" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D90" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:D90"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
+    <sheetView topLeftCell="A39" workbookViewId="1">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9672,7 +9870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
@@ -9692,7 +9890,7 @@
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>261</v>
       </c>
@@ -9712,7 +9910,7 @@
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -9732,7 +9930,7 @@
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>265</v>
       </c>
@@ -9752,7 +9950,7 @@
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>267</v>
       </c>
@@ -9772,7 +9970,7 @@
       <c r="G6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>269</v>
       </c>
@@ -9792,7 +9990,7 @@
       <c r="G7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>271</v>
       </c>
@@ -9812,7 +10010,7 @@
       <c r="G8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>273</v>
       </c>
@@ -9832,7 +10030,7 @@
       <c r="G9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>275</v>
       </c>
@@ -9852,7 +10050,7 @@
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>277</v>
       </c>
@@ -9872,7 +10070,7 @@
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>279</v>
       </c>
@@ -9892,7 +10090,7 @@
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>281</v>
       </c>
@@ -9912,7 +10110,7 @@
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>283</v>
       </c>
@@ -9932,7 +10130,7 @@
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>286</v>
       </c>
@@ -9952,7 +10150,7 @@
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>289</v>
       </c>
@@ -9972,7 +10170,7 @@
       <c r="G16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>292</v>
       </c>
@@ -9992,7 +10190,7 @@
       <c r="G17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>295</v>
       </c>
@@ -10012,7 +10210,7 @@
       <c r="G18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>298</v>
       </c>
@@ -10032,7 +10230,7 @@
       <c r="G19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>301</v>
       </c>
@@ -10052,7 +10250,7 @@
       <c r="G20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>304</v>
       </c>
@@ -10072,7 +10270,7 @@
       <c r="G21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>307</v>
       </c>
@@ -10092,7 +10290,7 @@
       <c r="G22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>310</v>
       </c>
@@ -10112,7 +10310,7 @@
       <c r="G23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>313</v>
       </c>
@@ -10132,7 +10330,7 @@
       <c r="G24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>316</v>
       </c>
@@ -10152,7 +10350,7 @@
       <c r="G25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>319</v>
       </c>
@@ -10172,7 +10370,7 @@
       <c r="G26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>322</v>
       </c>
@@ -10192,7 +10390,7 @@
       <c r="G27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>325</v>
       </c>
@@ -10212,7 +10410,7 @@
       <c r="G28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>328</v>
       </c>
@@ -10232,7 +10430,7 @@
       <c r="G29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>331</v>
       </c>
@@ -10252,7 +10450,7 @@
       <c r="G30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>334</v>
       </c>
@@ -10272,7 +10470,7 @@
       <c r="G31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>337</v>
       </c>
@@ -10292,7 +10490,7 @@
       <c r="G32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>340</v>
       </c>
@@ -10312,7 +10510,7 @@
       <c r="G33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>343</v>
       </c>
@@ -10332,7 +10530,7 @@
       <c r="G34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>345</v>
       </c>
@@ -10352,7 +10550,7 @@
       <c r="G35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>347</v>
       </c>
@@ -10372,7 +10570,7 @@
       <c r="G36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>349</v>
       </c>
@@ -10392,7 +10590,7 @@
       <c r="G37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>352</v>
       </c>
@@ -10412,7 +10610,7 @@
       <c r="G38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>354</v>
       </c>
@@ -10432,7 +10630,7 @@
       <c r="G39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>356</v>
       </c>
@@ -10452,7 +10650,7 @@
       <c r="G40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>358</v>
       </c>
@@ -10472,7 +10670,7 @@
       <c r="G41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>360</v>
       </c>
@@ -10492,7 +10690,7 @@
       <c r="G42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>362</v>
       </c>
@@ -10512,7 +10710,7 @@
       <c r="G43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>364</v>
       </c>
@@ -10532,7 +10730,7 @@
       <c r="G44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>366</v>
       </c>
@@ -10552,7 +10750,7 @@
       <c r="G45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>368</v>
       </c>
@@ -10572,7 +10770,7 @@
       <c r="G46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>370</v>
       </c>
@@ -10592,7 +10790,7 @@
       <c r="G47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>372</v>
       </c>
@@ -10612,7 +10810,7 @@
       <c r="G48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>374</v>
       </c>
@@ -10632,7 +10830,7 @@
       <c r="G49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>376</v>
       </c>
@@ -10652,7 +10850,7 @@
       <c r="G50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>378</v>
       </c>
@@ -10672,7 +10870,7 @@
       <c r="G51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>380</v>
       </c>
@@ -10692,7 +10890,7 @@
       <c r="G52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>382</v>
       </c>
@@ -10712,7 +10910,7 @@
       <c r="G53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>384</v>
       </c>
@@ -10732,7 +10930,7 @@
       <c r="G54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>386</v>
       </c>
@@ -10752,7 +10950,7 @@
       <c r="G55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>388</v>
       </c>
@@ -10772,7 +10970,7 @@
       <c r="G56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>390</v>
       </c>
@@ -10792,7 +10990,7 @@
       <c r="G57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>393</v>
       </c>
@@ -10812,7 +11010,7 @@
       <c r="G58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>396</v>
       </c>
@@ -10832,7 +11030,7 @@
       <c r="G59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>398</v>
       </c>
@@ -10852,7 +11050,7 @@
       <c r="G60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>400</v>
       </c>
@@ -10872,7 +11070,7 @@
       <c r="G61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>402</v>
       </c>
@@ -10892,7 +11090,7 @@
       <c r="G62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>404</v>
       </c>
@@ -10912,7 +11110,7 @@
       <c r="G63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>406</v>
       </c>
@@ -10932,7 +11130,7 @@
       <c r="G64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>408</v>
       </c>
@@ -10952,7 +11150,7 @@
       <c r="G65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>410</v>
       </c>
@@ -10972,7 +11170,7 @@
       <c r="G66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>413</v>
       </c>
@@ -10992,7 +11190,7 @@
       <c r="G67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>415</v>
       </c>
@@ -11012,7 +11210,7 @@
       <c r="G68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>417</v>
       </c>
@@ -11032,7 +11230,7 @@
       <c r="G69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>419</v>
       </c>
@@ -11052,7 +11250,7 @@
       <c r="G70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>421</v>
       </c>
@@ -11072,7 +11270,7 @@
       <c r="G71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>423</v>
       </c>
@@ -11092,7 +11290,7 @@
       <c r="G72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>425</v>
       </c>
@@ -11112,7 +11310,7 @@
       <c r="G73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>427</v>
       </c>
@@ -11132,7 +11330,7 @@
       <c r="G74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>429</v>
       </c>
@@ -11152,7 +11350,7 @@
       <c r="G75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>431</v>
       </c>
@@ -11172,7 +11370,7 @@
       <c r="G76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>433</v>
       </c>
@@ -11192,7 +11390,7 @@
       <c r="G77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>435</v>
       </c>
@@ -11212,7 +11410,7 @@
       <c r="G78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>437</v>
       </c>
@@ -11232,7 +11430,7 @@
       <c r="G79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>439</v>
       </c>
@@ -11252,7 +11450,7 @@
       <c r="G80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>441</v>
       </c>
@@ -11272,7 +11470,7 @@
       <c r="G81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>443</v>
       </c>
@@ -11292,7 +11490,7 @@
       <c r="G82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>445</v>
       </c>
@@ -11312,7 +11510,7 @@
       <c r="G83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>447</v>
       </c>
@@ -11332,7 +11530,7 @@
       <c r="G84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>449</v>
       </c>
@@ -11352,7 +11550,7 @@
       <c r="G85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>451</v>
       </c>
@@ -11373,7 +11571,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>897</v>
       </c>
@@ -11395,7 +11593,7 @@
       <c r="I87" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I87" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A1:I87">
     <sortState ref="A2:I87">
       <sortCondition ref="A2:A87"/>
     </sortState>
@@ -11405,20 +11603,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>453</v>
       </c>
@@ -11441,7 +11642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
@@ -11453,7 +11654,7 @@
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>261</v>
       </c>
@@ -11474,7 +11675,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
@@ -11487,7 +11688,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>259</v>
       </c>
@@ -11500,7 +11701,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>261</v>
       </c>
@@ -11513,7 +11714,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>263</v>
       </c>
@@ -11526,7 +11727,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>265</v>
       </c>
@@ -11539,7 +11740,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>267</v>
       </c>
@@ -11552,7 +11753,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>267</v>
       </c>
@@ -11565,7 +11766,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>269</v>
       </c>
@@ -11578,7 +11779,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>271</v>
       </c>
@@ -11591,7 +11792,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>273</v>
       </c>
@@ -11604,7 +11805,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>275</v>
       </c>
@@ -11625,7 +11826,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>275</v>
       </c>
@@ -11638,7 +11839,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>277</v>
       </c>
@@ -11651,7 +11852,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>277</v>
       </c>
@@ -11664,7 +11865,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>279</v>
       </c>
@@ -11677,7 +11878,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>281</v>
       </c>
@@ -11690,7 +11891,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>281</v>
       </c>
@@ -11703,7 +11904,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>283</v>
       </c>
@@ -11716,7 +11917,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>286</v>
       </c>
@@ -11729,7 +11930,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>289</v>
       </c>
@@ -11742,7 +11943,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>292</v>
       </c>
@@ -11755,7 +11956,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>295</v>
       </c>
@@ -11768,7 +11969,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>298</v>
       </c>
@@ -11781,7 +11982,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>301</v>
       </c>
@@ -11794,7 +11995,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>304</v>
       </c>
@@ -11807,7 +12008,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>307</v>
       </c>
@@ -11820,7 +12021,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>310</v>
       </c>
@@ -11833,7 +12034,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>313</v>
       </c>
@@ -11846,7 +12047,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>316</v>
       </c>
@@ -11859,7 +12060,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>319</v>
       </c>
@@ -11872,7 +12073,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>322</v>
       </c>
@@ -11885,7 +12086,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>325</v>
       </c>
@@ -11898,7 +12099,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>328</v>
       </c>
@@ -11911,7 +12112,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>331</v>
       </c>
@@ -11924,7 +12125,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>334</v>
       </c>
@@ -11937,7 +12138,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>337</v>
       </c>
@@ -11950,7 +12151,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>340</v>
       </c>
@@ -11963,7 +12164,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>343</v>
       </c>
@@ -11984,7 +12185,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>343</v>
       </c>
@@ -11997,7 +12198,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -12018,7 +12219,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -12031,7 +12232,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>347</v>
       </c>
@@ -12052,7 +12253,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>347</v>
       </c>
@@ -12060,7 +12261,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>349</v>
       </c>
@@ -12073,7 +12274,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>352</v>
       </c>
@@ -12086,7 +12287,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -12099,7 +12300,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>356</v>
       </c>
@@ -12112,7 +12313,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>358</v>
       </c>
@@ -12125,7 +12326,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>360</v>
       </c>
@@ -12146,29 +12347,33 @@
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="C53" s="10"/>
       <c r="D53" s="16"/>
       <c r="E53" s="2"/>
       <c r="F53" s="10"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="C54" s="10"/>
       <c r="D54" s="16"/>
       <c r="E54" s="2"/>
       <c r="F54" s="10"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>362</v>
       </c>
@@ -12187,7 +12392,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>364</v>
       </c>
@@ -12200,7 +12405,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>364</v>
       </c>
@@ -12213,7 +12418,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>366</v>
       </c>
@@ -12226,7 +12431,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>368</v>
       </c>
@@ -12247,7 +12452,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>368</v>
       </c>
@@ -12260,7 +12465,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>370</v>
       </c>
@@ -12273,7 +12478,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>370</v>
       </c>
@@ -12286,7 +12491,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>372</v>
       </c>
@@ -12299,7 +12504,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>374</v>
       </c>
@@ -12312,7 +12517,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>376</v>
       </c>
@@ -12333,7 +12538,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>376</v>
       </c>
@@ -12346,7 +12551,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>378</v>
       </c>
@@ -12359,7 +12564,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>380</v>
       </c>
@@ -12372,7 +12577,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>382</v>
       </c>
@@ -12385,7 +12590,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>384</v>
       </c>
@@ -12406,7 +12611,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>384</v>
       </c>
@@ -12419,7 +12624,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>386</v>
       </c>
@@ -12432,7 +12637,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>386</v>
       </c>
@@ -12445,7 +12650,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>388</v>
       </c>
@@ -12466,7 +12671,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>390</v>
       </c>
@@ -12487,7 +12692,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>393</v>
       </c>
@@ -12508,7 +12713,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>396</v>
       </c>
@@ -12529,7 +12734,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>396</v>
       </c>
@@ -12542,7 +12747,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>398</v>
       </c>
@@ -12563,7 +12768,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>398</v>
       </c>
@@ -12571,7 +12776,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>400</v>
       </c>
@@ -12592,7 +12797,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>400</v>
       </c>
@@ -12600,7 +12805,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>402</v>
       </c>
@@ -12613,7 +12818,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>404</v>
       </c>
@@ -12626,7 +12831,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>406</v>
       </c>
@@ -12647,7 +12852,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>408</v>
       </c>
@@ -12660,7 +12865,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>410</v>
       </c>
@@ -12673,7 +12878,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>413</v>
       </c>
@@ -12694,7 +12899,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>415</v>
       </c>
@@ -12715,7 +12920,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>417</v>
       </c>
@@ -12736,7 +12941,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>419</v>
       </c>
@@ -12749,7 +12954,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>421</v>
       </c>
@@ -12770,7 +12975,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>421</v>
       </c>
@@ -12783,7 +12988,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>423</v>
       </c>
@@ -12804,7 +13009,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>423</v>
       </c>
@@ -12812,7 +13017,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>425</v>
       </c>
@@ -12825,7 +13030,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>427</v>
       </c>
@@ -12838,7 +13043,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>427</v>
       </c>
@@ -12851,7 +13056,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>429</v>
       </c>
@@ -12864,7 +13069,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>431</v>
       </c>
@@ -12877,7 +13082,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>431</v>
       </c>
@@ -12890,7 +13095,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>433</v>
       </c>
@@ -12903,7 +13108,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>433</v>
       </c>
@@ -12916,7 +13121,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>435</v>
       </c>
@@ -12929,7 +13134,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>435</v>
       </c>
@@ -12942,7 +13147,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>437</v>
       </c>
@@ -12955,7 +13160,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>439</v>
       </c>
@@ -12968,7 +13173,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>441</v>
       </c>
@@ -12989,7 +13194,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>443</v>
       </c>
@@ -13010,7 +13215,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>445</v>
       </c>
@@ -13031,7 +13236,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>445</v>
       </c>
@@ -13044,7 +13249,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>447</v>
       </c>
@@ -13057,7 +13262,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>447</v>
       </c>
@@ -13070,7 +13275,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>449</v>
       </c>
@@ -13087,7 +13292,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>449</v>
       </c>
@@ -13098,7 +13303,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>451</v>
       </c>
@@ -13115,7 +13320,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>897</v>
       </c>
@@ -13133,32 +13338,33 @@
       <c r="G117" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G117" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:G117"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.31640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.31640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="7"/>
+    <col min="6" max="6" width="21.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13181,7 +13387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>659</v>
       </c>
@@ -13204,7 +13410,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>660</v>
       </c>
@@ -13221,7 +13427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>661</v>
       </c>
@@ -13238,7 +13444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>662</v>
       </c>
@@ -13255,7 +13461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>663</v>
       </c>
@@ -13272,7 +13478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>664</v>
       </c>
@@ -13289,7 +13495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>665</v>
       </c>
@@ -13306,7 +13512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>666</v>
       </c>
@@ -13323,7 +13529,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>667</v>
       </c>
@@ -13340,7 +13546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>668</v>
       </c>
@@ -13357,7 +13563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>669</v>
       </c>
@@ -13374,7 +13580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>670</v>
       </c>
@@ -13391,7 +13597,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>671</v>
       </c>
@@ -13408,7 +13614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>672</v>
       </c>
@@ -13425,7 +13631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>673</v>
       </c>
@@ -13442,7 +13648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>674</v>
       </c>
@@ -13459,7 +13665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>675</v>
       </c>
@@ -13476,7 +13682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>676</v>
       </c>
@@ -13493,7 +13699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>677</v>
       </c>
@@ -13510,7 +13716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>678</v>
       </c>
@@ -13527,7 +13733,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>679</v>
       </c>
@@ -13544,7 +13750,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>680</v>
       </c>
@@ -13561,7 +13767,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>681</v>
       </c>
@@ -13578,7 +13784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>682</v>
       </c>
@@ -13595,7 +13801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>683</v>
       </c>
@@ -13612,7 +13818,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>684</v>
       </c>
@@ -13629,7 +13835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>685</v>
       </c>
@@ -13646,7 +13852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>686</v>
       </c>
@@ -13663,7 +13869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>687</v>
       </c>
@@ -13680,7 +13886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>688</v>
       </c>
@@ -13697,7 +13903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>689</v>
       </c>
@@ -13714,7 +13920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>690</v>
       </c>
@@ -13731,7 +13937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>691</v>
       </c>
